--- a/erui-parent/erui-boss-web/src/main/webapp/WEB-INF/template/excel/仓储物流-订单出库.xlsx
+++ b/erui-parent/erui-boss-web/src/main/webapp/WEB-INF/template/excel/仓储物流-订单出库.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\易瑞资料\report\报表1.6\模板\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\space\ideaSpace\report\java\erui-parent\erui-boss-web\src\main\webapp\WEB-INF\template\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:400001_{26852F5A-9E4A-4DD6-A84F-D38F73857150}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="10350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21510" windowHeight="10365" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,53 +20,74 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
-  <si>
-    <t>时间</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
+  <si>
+    <t>出库单号</t>
   </si>
   <si>
     <t>采购通知单号</t>
   </si>
   <si>
+    <t>目的国</t>
+  </si>
+  <si>
     <t>项目执行号</t>
   </si>
   <si>
     <t>包装件数</t>
   </si>
   <si>
+    <t>出库时间</t>
+  </si>
+  <si>
     <t>金额</t>
   </si>
   <si>
-    <t>目的国</t>
-  </si>
-  <si>
     <t>备注</t>
   </si>
   <si>
-    <t>出库单号</t>
-  </si>
-  <si>
-    <t>出库时间</t>
-  </si>
-  <si>
-    <t>ER20170102</t>
-  </si>
-  <si>
-    <t>俄罗斯</t>
-  </si>
-  <si>
-    <t>EX20171235-FS</t>
-  </si>
-  <si>
-    <t>不错不错</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>单据类型</t>
+  </si>
+  <si>
+    <t>ER20170333</t>
+  </si>
+  <si>
+    <t>EXW东营</t>
+  </si>
+  <si>
+    <t>YRX20170084</t>
+  </si>
+  <si>
+    <t>订单</t>
+  </si>
+  <si>
+    <t>ER20170464</t>
+  </si>
+  <si>
+    <t>CIF曼萨尼约</t>
+  </si>
+  <si>
+    <t>YRX20170170-FS</t>
+  </si>
+  <si>
+    <t>铺货</t>
+  </si>
+  <si>
+    <t>KYR20170058</t>
+  </si>
+  <si>
+    <t>P20170088</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="178" formatCode="0_);[Red]\(0\)"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -74,19 +96,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="9"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -116,19 +149,32 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -139,9 +185,9 @@
   <colors>
     <mruColors>
       <color rgb="FFFF0000"/>
-      <color rgb="FF92D050"/>
       <color rgb="FFFFFF00"/>
       <color rgb="FF000000"/>
+      <color rgb="FF92D050"/>
     </mruColors>
   </colors>
   <extLst>
@@ -413,85 +459,157 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.375" customWidth="1"/>
-    <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="3" max="3" width="17.625" customWidth="1"/>
-    <col min="4" max="4" width="14.875" customWidth="1"/>
+    <col min="1" max="1" width="10.875" customWidth="1"/>
+    <col min="2" max="2" width="12.875" customWidth="1"/>
+    <col min="3" max="3" width="13.25" customWidth="1"/>
+    <col min="4" max="4" width="23.5" customWidth="1"/>
     <col min="5" max="5" width="10.875" customWidth="1"/>
-    <col min="6" max="6" width="11" customWidth="1"/>
-    <col min="7" max="7" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7" customWidth="1"/>
-    <col min="9" max="9" width="5.125" customWidth="1"/>
+    <col min="6" max="6" width="12.875" customWidth="1"/>
+    <col min="7" max="7" width="6.375" customWidth="1"/>
+    <col min="8" max="8" width="5.125" customWidth="1"/>
+    <col min="9" max="9" width="8.875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="4">
-        <v>43025</v>
-      </c>
-      <c r="B2" s="2">
-        <v>201700127</v>
+      <c r="A2" s="2">
+        <v>20170454</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="2">
-        <v>10</v>
-      </c>
-      <c r="G2" s="3">
-        <v>43024</v>
-      </c>
-      <c r="H2" s="2">
-        <v>200</v>
-      </c>
+      <c r="E2" s="2">
+        <v>1</v>
+      </c>
+      <c r="F2" s="3">
+        <v>43109</v>
+      </c>
+      <c r="G2" s="2">
+        <v>235</v>
+      </c>
+      <c r="H2" s="2"/>
       <c r="I2" s="2" t="s">
         <v>12</v>
       </c>
     </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <v>20170536</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="2">
+        <v>10</v>
+      </c>
+      <c r="F3" s="3">
+        <v>43102</v>
+      </c>
+      <c r="G3" s="2">
+        <v>158</v>
+      </c>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="8">
+        <v>20170079</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="6">
+        <v>2</v>
+      </c>
+      <c r="F4" s="7">
+        <v>43103</v>
+      </c>
+      <c r="G4" s="5">
+        <v>120</v>
+      </c>
+      <c r="H4" s="5"/>
+      <c r="I4" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="6">
+        <v>1</v>
+      </c>
+      <c r="F5" s="7">
+        <v>43156</v>
+      </c>
+      <c r="G5" s="5">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="H5" s="5"/>
+      <c r="I5" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>